--- a/smart-phrase-sjednoceno.xlsx
+++ b/smart-phrase-sjednoceno.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Knihovny\Plocha\Obsahy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Knihovny\Dokumenty\GitHub\smart-phrase-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="1229">
   <si>
     <t>CULTURE</t>
   </si>
@@ -3434,24 +3434,12 @@
     <t>Anvendelse</t>
   </si>
   <si>
-    <t>Applikationens egenskaber</t>
-  </si>
-  <si>
-    <t>Applikationens preview</t>
-  </si>
-  <si>
     <t>Rejseparlør</t>
   </si>
   <si>
-    <t>Eigenschaften der App</t>
-  </si>
-  <si>
     <t>Reisesprachführer</t>
   </si>
   <si>
-    <t>Ansicht der App</t>
-  </si>
-  <si>
     <t>Preview</t>
   </si>
   <si>
@@ -3485,12 +3473,6 @@
     <t>Conversazione da Viaggio</t>
   </si>
   <si>
-    <t>Profilo dell’applicazione</t>
-  </si>
-  <si>
-    <t>Applicazione proprietà</t>
-  </si>
-  <si>
     <t>Utilizzo</t>
   </si>
   <si>
@@ -3500,15 +3482,9 @@
     <t>Alkalmazás kinézete</t>
   </si>
   <si>
-    <t>Az alkalmazás tulajdonságai</t>
-  </si>
-  <si>
     <t>Conversatiegids</t>
   </si>
   <si>
-    <t>Eigendommen van de applicatie</t>
-  </si>
-  <si>
     <t>Inzage applicatie</t>
   </si>
   <si>
@@ -3518,12 +3494,6 @@
     <t>Toepassing</t>
   </si>
   <si>
-    <t>Egenskaper av applikasjonen</t>
-  </si>
-  <si>
-    <t>Prøveforestilling av applikasjonen</t>
-  </si>
-  <si>
     <t>Praksis</t>
   </si>
   <si>
@@ -3539,18 +3509,9 @@
     <t>Rozmówki turystyczne</t>
   </si>
   <si>
-    <t>Właściwości aplikacji</t>
-  </si>
-  <si>
     <t>Zastosowanie</t>
   </si>
   <si>
-    <t>Características da aplicação</t>
-  </si>
-  <si>
-    <t>Apresentação da aplicação</t>
-  </si>
-  <si>
     <t>Conversação para viagens</t>
   </si>
   <si>
@@ -3566,21 +3527,9 @@
     <t>Matkasanakirja</t>
   </si>
   <si>
-    <t>Sovelluksen esikatselu</t>
-  </si>
-  <si>
-    <t>Sovelluksen ominaisuudet</t>
-  </si>
-  <si>
     <t>Tuki</t>
   </si>
   <si>
-    <t>Applikationens egenskaper</t>
-  </si>
-  <si>
-    <t>Visning av applikationen</t>
-  </si>
-  <si>
     <t>Nytta</t>
   </si>
   <si>
@@ -3593,12 +3542,6 @@
     <t>Destek</t>
   </si>
   <si>
-    <t>Uygulama önizleme</t>
-  </si>
-  <si>
-    <t>Uygulama özellikleri</t>
-  </si>
-  <si>
     <t>Pratik</t>
   </si>
   <si>
@@ -3611,18 +3554,9 @@
     <t>Χρήσιμες ταξιδιωτικές φράσεις</t>
   </si>
   <si>
-    <t>Ιδιότητες εφαρμογής</t>
-  </si>
-  <si>
     <t>Υποστήριξη</t>
   </si>
   <si>
-    <t>Προβολή εφαρμογών</t>
-  </si>
-  <si>
-    <t>Изглед на приложението</t>
-  </si>
-  <si>
     <t>Пътнически разговорник</t>
   </si>
   <si>
@@ -3632,15 +3566,6 @@
     <t>Приложения</t>
   </si>
   <si>
-    <t>Свойства на приложението</t>
-  </si>
-  <si>
-    <t>Качество приложения</t>
-  </si>
-  <si>
-    <t>Вид приложения</t>
-  </si>
-  <si>
     <t>Использование</t>
   </si>
   <si>
@@ -3722,16 +3647,73 @@
     <t>Hotovo?</t>
   </si>
   <si>
-    <t>2. slide, prekyv tlacitek</t>
-  </si>
-  <si>
-    <t>2. slide tlacitka</t>
-  </si>
-  <si>
-    <t>Druhý odstavec chybí</t>
-  </si>
-  <si>
-    <t>Nadpis - pravý sloupec</t>
+    <t>Egenskaber</t>
+  </si>
+  <si>
+    <t>Eigenschaften</t>
+  </si>
+  <si>
+    <t>Ansicht</t>
+  </si>
+  <si>
+    <t>Caratteristiche</t>
+  </si>
+  <si>
+    <t>Anteprima</t>
+  </si>
+  <si>
+    <t>Jellemzők</t>
+  </si>
+  <si>
+    <t>Eigendommen</t>
+  </si>
+  <si>
+    <t>Prøveforestilling</t>
+  </si>
+  <si>
+    <t>Egenskape</t>
+  </si>
+  <si>
+    <t>Właściwości</t>
+  </si>
+  <si>
+    <t>Apresentação</t>
+  </si>
+  <si>
+    <t>Esikatselu</t>
+  </si>
+  <si>
+    <t>Ominaisuudet</t>
+  </si>
+  <si>
+    <t>Egenskaper</t>
+  </si>
+  <si>
+    <t>Visning</t>
+  </si>
+  <si>
+    <t>Önizleme</t>
+  </si>
+  <si>
+    <t>Özellikleri</t>
+  </si>
+  <si>
+    <t>Ιδιότητες</t>
+  </si>
+  <si>
+    <t>Προβολή</t>
+  </si>
+  <si>
+    <t>Изглед</t>
+  </si>
+  <si>
+    <t>Свойства</t>
+  </si>
+  <si>
+    <t>Особенности</t>
+  </si>
+  <si>
+    <t>Вид</t>
   </si>
 </sst>
 </file>
@@ -3838,26 +3820,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Tahoma"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C6500"/>
       </font>
@@ -3883,6 +3845,19 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4009,6 +3984,13 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Styl tabulky 1" pivot="0" count="0"/>
@@ -4025,27 +4007,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabulka2" displayName="Tabulka2" ref="A1:I306" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="headerStyle">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabulka2" displayName="Tabulka2" ref="A1:I306" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="headerStyle">
   <autoFilter ref="A1:I306">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Česky"/>
-      </filters>
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A3:H305">
     <sortCondition ref="B1:B306"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="CULTURE" dataDxfId="12"/>
-    <tableColumn id="2" name="LANGUAGE" dataDxfId="11"/>
-    <tableColumn id="3" name="URL" dataDxfId="10"/>
-    <tableColumn id="4" name="TITLE" dataDxfId="9"/>
-    <tableColumn id="6" name="KEYWORDS" dataDxfId="8"/>
-    <tableColumn id="5" name="DESCRIPTION" dataDxfId="7"/>
-    <tableColumn id="7" name="NOTICE" dataDxfId="6"/>
-    <tableColumn id="8" name="MENU TITLE" dataDxfId="5"/>
-    <tableColumn id="9" name="Hotovo?" dataDxfId="1"/>
+    <tableColumn id="1" name="CULTURE" dataDxfId="11"/>
+    <tableColumn id="2" name="LANGUAGE" dataDxfId="10"/>
+    <tableColumn id="3" name="URL" dataDxfId="9"/>
+    <tableColumn id="4" name="TITLE" dataDxfId="8"/>
+    <tableColumn id="6" name="KEYWORDS" dataDxfId="7"/>
+    <tableColumn id="5" name="DESCRIPTION" dataDxfId="6"/>
+    <tableColumn id="7" name="NOTICE" dataDxfId="5"/>
+    <tableColumn id="8" name="MENU TITLE" dataDxfId="4"/>
+    <tableColumn id="9" name="Hotovo?" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4350,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4394,10 +4376,10 @@
         <v>1114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -4450,7 +4432,7 @@
         <v>1115</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4476,10 +4458,10 @@
         <v>816</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4505,13 +4487,13 @@
         <v>815</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -4564,10 +4546,10 @@
         <v>1132</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -4590,11 +4572,11 @@
         <v>811</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -4617,11 +4599,11 @@
         <v>819</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -4673,9 +4655,11 @@
       <c r="H11" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -4698,11 +4682,11 @@
         <v>817</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -4725,7 +4709,7 @@
         <v>810</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -4755,10 +4739,10 @@
         <v>1117</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -4786,7 +4770,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
@@ -4813,7 +4797,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -4840,7 +4824,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>437</v>
       </c>
@@ -4865,9 +4849,11 @@
       <c r="H18" t="s">
         <v>1134</v>
       </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>437</v>
       </c>
@@ -4890,13 +4876,13 @@
         <v>813</v>
       </c>
       <c r="H19" t="s">
-        <v>1135</v>
+        <v>1206</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>437</v>
       </c>
@@ -4919,13 +4905,13 @@
         <v>814</v>
       </c>
       <c r="H20" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>437</v>
       </c>
@@ -4948,13 +4934,13 @@
         <v>816</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>437</v>
       </c>
@@ -4977,10 +4963,10 @@
         <v>815</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5010,7 +4996,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>437</v>
       </c>
@@ -5033,10 +5019,10 @@
         <v>812</v>
       </c>
       <c r="H24" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5062,7 +5048,7 @@
         <v>811</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I25" s="10"/>
     </row>
@@ -5089,7 +5075,7 @@
         <v>819</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I26" s="10"/>
     </row>
@@ -5116,7 +5102,7 @@
         <v>817</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I27" s="10"/>
     </row>
@@ -5143,7 +5129,7 @@
         <v>810</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I28" s="10"/>
     </row>
@@ -5202,7 +5188,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>103</v>
       </c>
@@ -5227,9 +5213,11 @@
       <c r="H31" t="s">
         <v>1119</v>
       </c>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>103</v>
       </c>
@@ -5252,10 +5240,10 @@
         <v>813</v>
       </c>
       <c r="H32" t="s">
-        <v>1138</v>
+        <v>1207</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5285,7 +5273,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
@@ -5308,10 +5296,10 @@
         <v>812</v>
       </c>
       <c r="H34" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5337,7 +5325,7 @@
         <v>811</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I35" s="10"/>
     </row>
@@ -5364,7 +5352,7 @@
         <v>819</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I36" s="10"/>
     </row>
@@ -5395,7 +5383,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -5418,13 +5406,13 @@
         <v>816</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
@@ -5447,10 +5435,10 @@
         <v>815</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5476,7 +5464,7 @@
         <v>817</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I40" s="10"/>
     </row>
@@ -5503,11 +5491,11 @@
         <v>810</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -5530,10 +5518,10 @@
         <v>814</v>
       </c>
       <c r="H42" t="s">
-        <v>1140</v>
+        <v>1208</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5618,7 +5606,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
@@ -5644,10 +5632,10 @@
         <v>1120</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
@@ -5670,13 +5658,13 @@
         <v>814</v>
       </c>
       <c r="H47" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
@@ -5699,13 +5687,13 @@
         <v>816</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
@@ -5728,13 +5716,13 @@
         <v>815</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -5757,9 +5745,11 @@
         <v>843</v>
       </c>
       <c r="H50" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I50" s="10"/>
+        <v>1138</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
@@ -5811,7 +5801,7 @@
         <v>811</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I52" s="10"/>
     </row>
@@ -5838,7 +5828,7 @@
         <v>819</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I53" s="10"/>
     </row>
@@ -5892,7 +5882,7 @@
         <v>817</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I55" s="10"/>
     </row>
@@ -5919,11 +5909,11 @@
         <v>810</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
@@ -5946,10 +5936,10 @@
         <v>812</v>
       </c>
       <c r="H57" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -6007,7 +5997,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>165</v>
       </c>
@@ -6033,10 +6023,10 @@
         <v>1121</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>165</v>
       </c>
@@ -6059,13 +6049,13 @@
         <v>814</v>
       </c>
       <c r="H61" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>165</v>
       </c>
@@ -6088,13 +6078,13 @@
         <v>816</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>165</v>
       </c>
@@ -6117,10 +6107,10 @@
         <v>815</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -6150,7 +6140,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>165</v>
       </c>
@@ -6173,10 +6163,10 @@
         <v>812</v>
       </c>
       <c r="H65" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -6202,7 +6192,7 @@
         <v>811</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I66" s="10"/>
     </row>
@@ -6229,7 +6219,7 @@
         <v>819</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I67" s="10"/>
     </row>
@@ -6283,7 +6273,7 @@
         <v>817</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I69" s="10"/>
     </row>
@@ -6310,11 +6300,11 @@
         <v>810</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>165</v>
       </c>
@@ -6339,7 +6329,9 @@
       <c r="H71" t="s">
         <v>1129</v>
       </c>
-      <c r="I71" s="10"/>
+      <c r="I71" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
@@ -6369,7 +6361,7 @@
       </c>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>197</v>
       </c>
@@ -6392,11 +6384,13 @@
         <v>843</v>
       </c>
       <c r="H73" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1142</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>197</v>
       </c>
@@ -6419,13 +6413,13 @@
         <v>814</v>
       </c>
       <c r="H74" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>197</v>
       </c>
@@ -6448,13 +6442,13 @@
         <v>816</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>197</v>
       </c>
@@ -6477,10 +6471,10 @@
         <v>815</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -6510,7 +6504,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>197</v>
       </c>
@@ -6536,7 +6530,7 @@
         <v>1123</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>1234</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -6589,7 +6583,7 @@
         <v>811</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I80" s="10"/>
     </row>
@@ -6616,7 +6610,7 @@
         <v>819</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I81" s="10"/>
     </row>
@@ -6643,7 +6637,7 @@
         <v>817</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I82" s="10"/>
     </row>
@@ -6670,11 +6664,11 @@
         <v>810</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>197</v>
       </c>
@@ -6697,10 +6691,10 @@
         <v>812</v>
       </c>
       <c r="H84" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -6758,7 +6752,7 @@
       </c>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>407</v>
       </c>
@@ -6781,13 +6775,13 @@
         <v>814</v>
       </c>
       <c r="H87" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>407</v>
       </c>
@@ -6810,13 +6804,13 @@
         <v>816</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>407</v>
       </c>
@@ -6839,10 +6833,10 @@
         <v>815</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -6895,7 +6889,7 @@
         <v>811</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I91" s="10"/>
     </row>
@@ -6922,11 +6916,11 @@
         <v>819</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>407</v>
       </c>
@@ -6951,9 +6945,11 @@
       <c r="H93" t="s">
         <v>1126</v>
       </c>
-      <c r="I93" s="10"/>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I93" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>407</v>
       </c>
@@ -6976,10 +6972,10 @@
         <v>812</v>
       </c>
       <c r="H94" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -7005,7 +7001,7 @@
         <v>817</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I95" s="10"/>
     </row>
@@ -7032,11 +7028,11 @@
         <v>810</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>407</v>
       </c>
@@ -7062,7 +7058,7 @@
         <v>1127</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -7143,7 +7139,7 @@
         <v>811</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I100" s="10"/>
     </row>
@@ -7170,7 +7166,7 @@
         <v>819</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I101" s="10"/>
     </row>
@@ -7201,7 +7197,7 @@
       </c>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>257</v>
       </c>
@@ -7224,13 +7220,13 @@
         <v>812</v>
       </c>
       <c r="H103" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>257</v>
       </c>
@@ -7253,13 +7249,13 @@
         <v>816</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>257</v>
       </c>
@@ -7282,13 +7278,13 @@
         <v>815</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>257</v>
       </c>
@@ -7311,13 +7307,13 @@
         <v>814</v>
       </c>
       <c r="H106" t="s">
-        <v>1152</v>
+        <v>1210</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>257</v>
       </c>
@@ -7340,10 +7336,10 @@
         <v>813</v>
       </c>
       <c r="H107" t="s">
-        <v>1153</v>
+        <v>1209</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>1234</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -7369,7 +7365,7 @@
         <v>817</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I108" s="10"/>
     </row>
@@ -7396,11 +7392,11 @@
         <v>810</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>257</v>
       </c>
@@ -7423,9 +7419,11 @@
         <v>843</v>
       </c>
       <c r="H110" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I110" s="10"/>
+        <v>1148</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
@@ -7455,7 +7453,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>73</v>
       </c>
@@ -7478,11 +7476,13 @@
         <v>843</v>
       </c>
       <c r="H112" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I112" s="10"/>
-    </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1149</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>73</v>
       </c>
@@ -7505,13 +7505,13 @@
         <v>814</v>
       </c>
       <c r="H113" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>73</v>
       </c>
@@ -7534,13 +7534,13 @@
         <v>816</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>73</v>
       </c>
@@ -7563,10 +7563,10 @@
         <v>815</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -7646,7 +7646,7 @@
         <v>811</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I118" s="10"/>
     </row>
@@ -7673,11 +7673,11 @@
         <v>819</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>73</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>1131</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>1231</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -7729,7 +7729,7 @@
         <v>817</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I121" s="10"/>
     </row>
@@ -7756,11 +7756,11 @@
         <v>810</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>73</v>
       </c>
@@ -7783,10 +7783,10 @@
         <v>813</v>
       </c>
       <c r="H123" t="s">
-        <v>1157</v>
+        <v>1211</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>661</v>
       </c>
@@ -7867,13 +7867,13 @@
         <v>812</v>
       </c>
       <c r="H126" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>661</v>
       </c>
@@ -7896,13 +7896,13 @@
         <v>813</v>
       </c>
       <c r="H127" t="s">
-        <v>1159</v>
+        <v>1212</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>661</v>
       </c>
@@ -7925,13 +7925,13 @@
         <v>816</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>661</v>
       </c>
@@ -7954,13 +7954,13 @@
         <v>815</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>661</v>
       </c>
@@ -7983,10 +7983,10 @@
         <v>814</v>
       </c>
       <c r="H130" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -8012,7 +8012,7 @@
         <v>811</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I131" s="10"/>
     </row>
@@ -8039,7 +8039,7 @@
         <v>819</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I132" s="10"/>
     </row>
@@ -8066,7 +8066,7 @@
         <v>818</v>
       </c>
       <c r="H133" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="I133" s="10"/>
     </row>
@@ -8093,7 +8093,7 @@
         <v>817</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I134" s="10"/>
     </row>
@@ -8120,11 +8120,11 @@
         <v>810</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>661</v>
       </c>
@@ -8147,9 +8147,11 @@
         <v>843</v>
       </c>
       <c r="H136" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I136" s="10"/>
+        <v>1154</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
@@ -8179,7 +8181,7 @@
       </c>
       <c r="I137" s="10"/>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>558</v>
       </c>
@@ -8202,13 +8204,13 @@
         <v>813</v>
       </c>
       <c r="H138" t="s">
-        <v>1163</v>
+        <v>1214</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>558</v>
       </c>
@@ -8231,13 +8233,13 @@
         <v>814</v>
       </c>
       <c r="H139" t="s">
-        <v>1164</v>
+        <v>1213</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>558</v>
       </c>
@@ -8260,13 +8262,13 @@
         <v>816</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>558</v>
       </c>
@@ -8289,10 +8291,10 @@
         <v>815</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -8322,7 +8324,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>558</v>
       </c>
@@ -8345,11 +8347,13 @@
         <v>843</v>
       </c>
       <c r="H143" t="s">
-        <v>1165</v>
-      </c>
-      <c r="I143" s="10"/>
-    </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1155</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>558</v>
       </c>
@@ -8372,10 +8376,10 @@
         <v>812</v>
       </c>
       <c r="H144" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>1231</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -8401,7 +8405,7 @@
         <v>811</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I145" s="10"/>
     </row>
@@ -8428,7 +8432,7 @@
         <v>819</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I146" s="10"/>
     </row>
@@ -8455,7 +8459,7 @@
         <v>817</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I147" s="10"/>
     </row>
@@ -8482,7 +8486,7 @@
         <v>810</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I148" s="10"/>
     </row>
@@ -8541,7 +8545,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>378</v>
       </c>
@@ -8564,13 +8568,13 @@
         <v>814</v>
       </c>
       <c r="H151" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>378</v>
       </c>
@@ -8593,13 +8597,13 @@
         <v>816</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>378</v>
       </c>
@@ -8622,10 +8626,10 @@
         <v>815</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -8678,7 +8682,7 @@
         <v>818</v>
       </c>
       <c r="H155" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="I155" s="10"/>
     </row>
@@ -8705,7 +8709,7 @@
         <v>811</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I156" s="10"/>
     </row>
@@ -8732,11 +8736,11 @@
         <v>819</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I157" s="10"/>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>378</v>
       </c>
@@ -8759,13 +8763,13 @@
         <v>812</v>
       </c>
       <c r="H158" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>378</v>
       </c>
@@ -8788,10 +8792,10 @@
         <v>813</v>
       </c>
       <c r="H159" t="s">
-        <v>1170</v>
+        <v>1215</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -8817,7 +8821,7 @@
         <v>817</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I160" s="10"/>
     </row>
@@ -8844,11 +8848,11 @@
         <v>810</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>378</v>
       </c>
@@ -8871,9 +8875,11 @@
         <v>843</v>
       </c>
       <c r="H162" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I162" s="10"/>
+        <v>1160</v>
+      </c>
+      <c r="I162" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
@@ -8903,7 +8909,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>632</v>
       </c>
@@ -8926,13 +8932,13 @@
         <v>813</v>
       </c>
       <c r="H164" t="s">
-        <v>1172</v>
+        <v>1121</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>632</v>
       </c>
@@ -8955,13 +8961,13 @@
         <v>814</v>
       </c>
       <c r="H165" t="s">
-        <v>1173</v>
+        <v>1216</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>632</v>
       </c>
@@ -8984,13 +8990,13 @@
         <v>816</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>632</v>
       </c>
@@ -9013,10 +9019,10 @@
         <v>815</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -9046,7 +9052,7 @@
       </c>
       <c r="I168" s="10"/>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>632</v>
       </c>
@@ -9069,13 +9075,13 @@
         <v>812</v>
       </c>
       <c r="H169" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>632</v>
       </c>
@@ -9098,9 +9104,11 @@
         <v>843</v>
       </c>
       <c r="H170" t="s">
-        <v>1175</v>
-      </c>
-      <c r="I170" s="10"/>
+        <v>1162</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
@@ -9125,7 +9133,7 @@
         <v>811</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I171" s="10"/>
     </row>
@@ -9152,7 +9160,7 @@
         <v>819</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I172" s="10"/>
     </row>
@@ -9179,7 +9187,7 @@
         <v>817</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I173" s="10"/>
     </row>
@@ -9206,7 +9214,7 @@
         <v>810</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I174" s="10"/>
     </row>
@@ -9233,7 +9241,7 @@
         <v>818</v>
       </c>
       <c r="H175" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="I175" s="10"/>
     </row>
@@ -9265,7 +9273,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>467</v>
       </c>
@@ -9288,11 +9296,13 @@
         <v>843</v>
       </c>
       <c r="H177" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I177" s="10"/>
-    </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1164</v>
+      </c>
+      <c r="I177" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>467</v>
       </c>
@@ -9315,13 +9325,13 @@
         <v>812</v>
       </c>
       <c r="H178" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>467</v>
       </c>
@@ -9344,13 +9354,13 @@
         <v>816</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>467</v>
       </c>
@@ -9373,13 +9383,13 @@
         <v>815</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>467</v>
       </c>
@@ -9402,13 +9412,13 @@
         <v>814</v>
       </c>
       <c r="H181" t="s">
-        <v>1179</v>
+        <v>1217</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>467</v>
       </c>
@@ -9431,10 +9441,10 @@
         <v>813</v>
       </c>
       <c r="H182" t="s">
-        <v>1180</v>
+        <v>1218</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -9460,7 +9470,7 @@
         <v>811</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I183" s="10"/>
     </row>
@@ -9487,7 +9497,7 @@
         <v>819</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I184" s="10"/>
     </row>
@@ -9541,7 +9551,7 @@
         <v>817</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I186" s="10"/>
     </row>
@@ -9568,7 +9578,7 @@
         <v>810</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I187" s="10"/>
     </row>
@@ -9595,7 +9605,7 @@
         <v>818</v>
       </c>
       <c r="H188" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="I188" s="10"/>
     </row>
@@ -9627,7 +9637,7 @@
       </c>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>498</v>
       </c>
@@ -9650,13 +9660,13 @@
         <v>813</v>
       </c>
       <c r="H190" t="s">
-        <v>1182</v>
+        <v>1219</v>
       </c>
       <c r="I190" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>498</v>
       </c>
@@ -9679,13 +9689,13 @@
         <v>814</v>
       </c>
       <c r="H191" t="s">
-        <v>1183</v>
+        <v>1220</v>
       </c>
       <c r="I191" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>498</v>
       </c>
@@ -9708,13 +9718,13 @@
         <v>816</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I192" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>498</v>
       </c>
@@ -9737,10 +9747,10 @@
         <v>815</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I193" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -9770,7 +9780,7 @@
       </c>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>498</v>
       </c>
@@ -9793,11 +9803,13 @@
         <v>843</v>
       </c>
       <c r="H195" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I195" s="10"/>
-    </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1167</v>
+      </c>
+      <c r="I195" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>498</v>
       </c>
@@ -9820,10 +9832,10 @@
         <v>812</v>
       </c>
       <c r="H196" t="s">
-        <v>1185</v>
+        <v>1168</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>1231</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -9849,7 +9861,7 @@
         <v>811</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I197" s="10"/>
     </row>
@@ -9876,7 +9888,7 @@
         <v>819</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I198" s="10"/>
     </row>
@@ -9903,7 +9915,7 @@
         <v>817</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I199" s="10"/>
     </row>
@@ -9930,7 +9942,7 @@
         <v>810</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I200" s="10"/>
     </row>
@@ -9957,7 +9969,7 @@
         <v>818</v>
       </c>
       <c r="H201" t="s">
-        <v>1186</v>
+        <v>1169</v>
       </c>
       <c r="I201" s="10"/>
     </row>
@@ -10012,7 +10024,7 @@
         <v>818</v>
       </c>
       <c r="H203" t="s">
-        <v>1187</v>
+        <v>1170</v>
       </c>
       <c r="I203" s="10"/>
     </row>
@@ -10039,7 +10051,7 @@
         <v>811</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I204" s="10"/>
     </row>
@@ -10066,7 +10078,7 @@
         <v>819</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I205" s="10"/>
     </row>
@@ -10097,7 +10109,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>347</v>
       </c>
@@ -10120,13 +10132,13 @@
         <v>814</v>
       </c>
       <c r="H207" t="s">
-        <v>1188</v>
+        <v>1221</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>347</v>
       </c>
@@ -10149,13 +10161,13 @@
         <v>816</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>347</v>
       </c>
@@ -10178,13 +10190,13 @@
         <v>815</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I209" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>347</v>
       </c>
@@ -10207,13 +10219,13 @@
         <v>813</v>
       </c>
       <c r="H210" t="s">
-        <v>1189</v>
+        <v>1222</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>347</v>
       </c>
@@ -10236,9 +10248,11 @@
         <v>843</v>
       </c>
       <c r="H211" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I211" s="10"/>
+        <v>1171</v>
+      </c>
+      <c r="I211" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
@@ -10263,7 +10277,7 @@
         <v>817</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I212" s="10"/>
     </row>
@@ -10290,11 +10304,11 @@
         <v>810</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>347</v>
       </c>
@@ -10317,10 +10331,10 @@
         <v>812</v>
       </c>
       <c r="H214" t="s">
-        <v>1191</v>
+        <v>1172</v>
       </c>
       <c r="I214" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -10351,7 +10365,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>316</v>
       </c>
@@ -10374,9 +10388,11 @@
         <v>843</v>
       </c>
       <c r="H216" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I216" s="10"/>
+        <v>1173</v>
+      </c>
+      <c r="I216" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
@@ -10405,7 +10421,7 @@
       </c>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>316</v>
       </c>
@@ -10428,13 +10444,13 @@
         <v>812</v>
       </c>
       <c r="H218" t="s">
-        <v>1193</v>
+        <v>1174</v>
       </c>
       <c r="I218" s="10" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>316</v>
       </c>
@@ -10457,10 +10473,10 @@
         <v>813</v>
       </c>
       <c r="H219" t="s">
-        <v>1194</v>
+        <v>1223</v>
       </c>
       <c r="I219" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -10486,7 +10502,7 @@
         <v>811</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I220" s="10"/>
     </row>
@@ -10513,7 +10529,7 @@
         <v>819</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I221" s="10"/>
     </row>
@@ -10540,11 +10556,11 @@
         <v>818</v>
       </c>
       <c r="H222" t="s">
-        <v>1195</v>
+        <v>1175</v>
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>316</v>
       </c>
@@ -10567,13 +10583,13 @@
         <v>816</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I223" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>316</v>
       </c>
@@ -10594,10 +10610,10 @@
         <v>815</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I224" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -10621,7 +10637,7 @@
         <v>817</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I225" s="10"/>
     </row>
@@ -10648,11 +10664,11 @@
         <v>810</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>316</v>
       </c>
@@ -10675,10 +10691,10 @@
         <v>814</v>
       </c>
       <c r="H227" t="s">
-        <v>1196</v>
+        <v>1224</v>
       </c>
       <c r="I227" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -10709,7 +10725,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>527</v>
       </c>
@@ -10732,13 +10748,13 @@
         <v>814</v>
       </c>
       <c r="H229" t="s">
-        <v>1197</v>
+        <v>1225</v>
       </c>
       <c r="I229" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>527</v>
       </c>
@@ -10761,13 +10777,13 @@
         <v>816</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I230" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>527</v>
       </c>
@@ -10790,10 +10806,10 @@
         <v>815</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I231" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -10823,7 +10839,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>527</v>
       </c>
@@ -10846,10 +10862,10 @@
         <v>812</v>
       </c>
       <c r="H233" t="s">
-        <v>1198</v>
+        <v>1176</v>
       </c>
       <c r="I233" s="10" t="s">
-        <v>1231</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -10875,7 +10891,7 @@
         <v>811</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I234" s="10"/>
     </row>
@@ -10902,7 +10918,7 @@
         <v>819</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I235" s="10"/>
     </row>
@@ -10929,11 +10945,11 @@
         <v>818</v>
       </c>
       <c r="H236" t="s">
-        <v>1199</v>
+        <v>1177</v>
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>527</v>
       </c>
@@ -10956,9 +10972,11 @@
         <v>843</v>
       </c>
       <c r="H237" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I237" s="10"/>
+        <v>1178</v>
+      </c>
+      <c r="I237" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
@@ -10983,7 +11001,7 @@
         <v>817</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I238" s="10"/>
     </row>
@@ -11010,11 +11028,11 @@
         <v>810</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>527</v>
       </c>
@@ -11037,10 +11055,10 @@
         <v>813</v>
       </c>
       <c r="H240" t="s">
-        <v>1201</v>
+        <v>1226</v>
       </c>
       <c r="I240" s="10" t="s">
-        <v>1234</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -11071,7 +11089,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>133</v>
       </c>
@@ -11094,10 +11112,10 @@
         <v>813</v>
       </c>
       <c r="H242" t="s">
-        <v>1202</v>
+        <v>1227</v>
       </c>
       <c r="I242" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -11127,7 +11145,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>133</v>
       </c>
@@ -11150,13 +11168,13 @@
         <v>814</v>
       </c>
       <c r="H244" t="s">
-        <v>1203</v>
+        <v>1228</v>
       </c>
       <c r="I244" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>133</v>
       </c>
@@ -11179,11 +11197,13 @@
         <v>843</v>
       </c>
       <c r="H245" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I245" s="10"/>
-    </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1179</v>
+      </c>
+      <c r="I245" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>133</v>
       </c>
@@ -11206,13 +11226,13 @@
         <v>816</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I246" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>133</v>
       </c>
@@ -11235,10 +11255,10 @@
         <v>815</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I247" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -11264,11 +11284,11 @@
         <v>818</v>
       </c>
       <c r="H248" t="s">
-        <v>1205</v>
+        <v>1180</v>
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>133</v>
       </c>
@@ -11291,10 +11311,10 @@
         <v>812</v>
       </c>
       <c r="H249" t="s">
-        <v>1206</v>
+        <v>1181</v>
       </c>
       <c r="I249" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -11320,7 +11340,7 @@
         <v>811</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I250" s="10"/>
     </row>
@@ -11347,7 +11367,7 @@
         <v>819</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I251" s="10"/>
     </row>
@@ -11374,7 +11394,7 @@
         <v>817</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I252" s="10"/>
     </row>
@@ -11401,7 +11421,7 @@
         <v>810</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I253" s="10"/>
     </row>
@@ -11460,7 +11480,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>588</v>
       </c>
@@ -11483,13 +11503,13 @@
         <v>813</v>
       </c>
       <c r="H256" t="s">
-        <v>1207</v>
+        <v>1182</v>
       </c>
       <c r="I256" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>588</v>
       </c>
@@ -11512,13 +11532,13 @@
         <v>814</v>
       </c>
       <c r="H257" t="s">
-        <v>1208</v>
+        <v>1183</v>
       </c>
       <c r="I257" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>588</v>
       </c>
@@ -11541,13 +11561,13 @@
         <v>816</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I258" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>588</v>
       </c>
@@ -11570,13 +11590,13 @@
         <v>815</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I259" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>588</v>
       </c>
@@ -11599,9 +11619,11 @@
         <v>843</v>
       </c>
       <c r="H260" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I260" s="10"/>
+        <v>1184</v>
+      </c>
+      <c r="I260" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
@@ -11626,7 +11648,7 @@
         <v>818</v>
       </c>
       <c r="H261" t="s">
-        <v>1210</v>
+        <v>1185</v>
       </c>
       <c r="I261" s="10"/>
     </row>
@@ -11653,7 +11675,7 @@
         <v>811</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I262" s="10"/>
     </row>
@@ -11680,7 +11702,7 @@
         <v>819</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I263" s="10"/>
     </row>
@@ -11707,7 +11729,7 @@
         <v>817</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I264" s="10"/>
     </row>
@@ -11734,11 +11756,11 @@
         <v>810</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>588</v>
       </c>
@@ -11761,10 +11783,10 @@
         <v>812</v>
       </c>
       <c r="H266" t="s">
-        <v>1211</v>
+        <v>1186</v>
       </c>
       <c r="I266" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -11818,7 +11840,7 @@
         <v>818</v>
       </c>
       <c r="H268" t="s">
-        <v>1212</v>
+        <v>1187</v>
       </c>
       <c r="I268" s="10"/>
     </row>
@@ -11845,7 +11867,7 @@
         <v>811</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I269" s="10"/>
     </row>
@@ -11872,11 +11894,11 @@
         <v>819</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>289</v>
       </c>
@@ -11899,13 +11921,13 @@
         <v>813</v>
       </c>
       <c r="H271" t="s">
-        <v>1213</v>
+        <v>1188</v>
       </c>
       <c r="I271" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>289</v>
       </c>
@@ -11928,9 +11950,11 @@
         <v>843</v>
       </c>
       <c r="H272" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I272" s="10"/>
+        <v>1189</v>
+      </c>
+      <c r="I272" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
@@ -11959,7 +11983,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>289</v>
       </c>
@@ -11982,13 +12006,13 @@
         <v>814</v>
       </c>
       <c r="H274" t="s">
-        <v>1215</v>
+        <v>1190</v>
       </c>
       <c r="I274" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>289</v>
       </c>
@@ -12011,13 +12035,13 @@
         <v>816</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I275" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>289</v>
       </c>
@@ -12040,10 +12064,10 @@
         <v>815</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I276" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -12069,7 +12093,7 @@
         <v>817</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I277" s="10"/>
     </row>
@@ -12096,11 +12120,11 @@
         <v>810</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>289</v>
       </c>
@@ -12123,10 +12147,10 @@
         <v>812</v>
       </c>
       <c r="H279" t="s">
-        <v>1216</v>
+        <v>1191</v>
       </c>
       <c r="I279" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -12184,7 +12208,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>227</v>
       </c>
@@ -12207,13 +12231,13 @@
         <v>813</v>
       </c>
       <c r="H282" t="s">
-        <v>1217</v>
+        <v>1192</v>
       </c>
       <c r="I282" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>227</v>
       </c>
@@ -12236,13 +12260,13 @@
         <v>814</v>
       </c>
       <c r="H283" t="s">
-        <v>1218</v>
+        <v>1193</v>
       </c>
       <c r="I283" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>227</v>
       </c>
@@ -12265,13 +12289,13 @@
         <v>816</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I284" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>227</v>
       </c>
@@ -12294,13 +12318,13 @@
         <v>815</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I285" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>227</v>
       </c>
@@ -12323,9 +12347,11 @@
         <v>843</v>
       </c>
       <c r="H286" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I286" s="10"/>
+        <v>1194</v>
+      </c>
+      <c r="I286" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
@@ -12350,7 +12376,7 @@
         <v>818</v>
       </c>
       <c r="H287" t="s">
-        <v>1220</v>
+        <v>1195</v>
       </c>
       <c r="I287" s="10"/>
     </row>
@@ -12377,7 +12403,7 @@
         <v>811</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I288" s="10"/>
     </row>
@@ -12404,7 +12430,7 @@
         <v>819</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I289" s="10"/>
     </row>
@@ -12431,7 +12457,7 @@
         <v>817</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I290" s="10"/>
     </row>
@@ -12458,11 +12484,11 @@
         <v>810</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>227</v>
       </c>
@@ -12485,10 +12511,10 @@
         <v>812</v>
       </c>
       <c r="H292" t="s">
-        <v>1221</v>
+        <v>1196</v>
       </c>
       <c r="I292" s="10" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -12546,7 +12572,7 @@
       </c>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>610</v>
       </c>
@@ -12572,10 +12598,10 @@
         <v>614</v>
       </c>
       <c r="I295" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>610</v>
       </c>
@@ -12598,13 +12624,13 @@
         <v>814</v>
       </c>
       <c r="H296" t="s">
-        <v>1222</v>
+        <v>1197</v>
       </c>
       <c r="I296" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>610</v>
       </c>
@@ -12627,13 +12653,13 @@
         <v>816</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I297" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>610</v>
       </c>
@@ -12656,13 +12682,13 @@
         <v>815</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I298" s="10" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>610</v>
       </c>
@@ -12685,9 +12711,11 @@
         <v>843</v>
       </c>
       <c r="H299" t="s">
-        <v>1223</v>
-      </c>
-      <c r="I299" s="10"/>
+        <v>1198</v>
+      </c>
+      <c r="I299" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
@@ -12712,7 +12740,7 @@
         <v>818</v>
       </c>
       <c r="H300" t="s">
-        <v>1224</v>
+        <v>1199</v>
       </c>
       <c r="I300" s="10"/>
     </row>
@@ -12739,7 +12767,7 @@
         <v>811</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="I301" s="10"/>
     </row>
@@ -12766,7 +12794,7 @@
         <v>819</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="I302" s="10"/>
     </row>
@@ -12793,7 +12821,7 @@
         <v>817</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I303" s="10"/>
     </row>
@@ -12820,11 +12848,11 @@
         <v>810</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>610</v>
       </c>
@@ -12847,10 +12875,10 @@
         <v>812</v>
       </c>
       <c r="H305" t="s">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="I305" s="10" t="s">
-        <v>1232</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -12883,7 +12911,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13145,17 +13173,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E11">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F11">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/smart-phrase-sjednoceno.xlsx
+++ b/smart-phrase-sjednoceno.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Knihovny\Dokumenty\GitHub\smart-phrase-scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Knihovny\Plocha\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="1253">
   <si>
     <t>CULTURE</t>
   </si>
@@ -3777,6 +3777,15 @@
   </si>
   <si>
     <t>/ja-cookies</t>
+  </si>
+  <si>
+    <t>při zadání adresy se otevře /cestovni-konverzace</t>
+  </si>
+  <si>
+    <t>Typ chyby</t>
+  </si>
+  <si>
+    <t>Error 500: Nejspíš form?</t>
   </si>
 </sst>
 </file>
@@ -3881,7 +3890,7 @@
     <cellStyle name="headerStyle" xfId="1"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -3910,11 +3919,17 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Tahoma"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4054,6 +4069,13 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Styl tabulky 1" pivot="0" count="0"/>
@@ -4070,12 +4092,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabulka2" displayName="Tabulka2" ref="A1:I327" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="headerStyle">
-  <autoFilter ref="A1:I327"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabulka2" displayName="Tabulka2" ref="A1:J327" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="headerStyle">
+  <autoFilter ref="A1:J327">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:I327">
     <sortCondition ref="B1:B327"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="1" name="CULTURE" dataDxfId="12"/>
     <tableColumn id="2" name="LANGUAGE" dataDxfId="11"/>
     <tableColumn id="3" name="URL" dataDxfId="10"/>
@@ -4085,6 +4111,7 @@
     <tableColumn id="7" name="NOTICE" dataDxfId="6"/>
     <tableColumn id="8" name="MENU TITLE" dataDxfId="5"/>
     <tableColumn id="9" name="Hotovo?" dataDxfId="4"/>
+    <tableColumn id="10" name="Typ chyby" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4387,10 +4414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I327"/>
+  <dimension ref="A1:J327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E299" sqref="E299"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H296" sqref="H288:H296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4403,11 +4430,12 @@
     <col min="6" max="6" width="39.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="78.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="2.28515625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="12" style="2" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4435,8 +4463,11 @@
       <c r="I1" s="1" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -4461,9 +4492,12 @@
       <c r="H2" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -4491,8 +4525,9 @@
       <c r="I3" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4520,8 +4555,9 @@
       <c r="I4" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -4549,8 +4585,9 @@
       <c r="I5" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -4575,9 +4612,12 @@
       <c r="H6" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -4605,8 +4645,9 @@
       <c r="I7" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -4631,9 +4672,12 @@
       <c r="H8" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -4658,9 +4702,12 @@
       <c r="H9" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -4685,9 +4732,12 @@
       <c r="H10" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -4715,8 +4765,9 @@
       <c r="I11" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -4741,9 +4792,12 @@
       <c r="H12" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -4768,9 +4822,12 @@
       <c r="H13" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -4798,8 +4855,9 @@
       <c r="I14" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -4825,9 +4883,12 @@
       <c r="H15" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
@@ -4852,9 +4913,12 @@
       <c r="H16" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -4879,9 +4943,14 @@
       <c r="H17" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>437</v>
       </c>
@@ -4909,8 +4978,9 @@
       <c r="I18" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>437</v>
       </c>
@@ -4938,8 +5008,9 @@
       <c r="I19" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>437</v>
       </c>
@@ -4967,8 +5038,9 @@
       <c r="I20" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>437</v>
       </c>
@@ -4996,8 +5068,9 @@
       <c r="I21" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>437</v>
       </c>
@@ -5025,8 +5098,9 @@
       <c r="I22" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>437</v>
       </c>
@@ -5051,9 +5125,12 @@
       <c r="H23" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>437</v>
       </c>
@@ -5081,8 +5158,9 @@
       <c r="I24" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>437</v>
       </c>
@@ -5107,9 +5185,12 @@
       <c r="H25" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>437</v>
       </c>
@@ -5134,9 +5215,12 @@
       <c r="H26" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>437</v>
       </c>
@@ -5161,9 +5245,12 @@
       <c r="H27" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>437</v>
       </c>
@@ -5188,9 +5275,12 @@
       <c r="H28" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>437</v>
       </c>
@@ -5215,9 +5305,12 @@
       <c r="H29" t="s">
         <v>1118</v>
       </c>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>437</v>
       </c>
@@ -5243,9 +5336,12 @@
       <c r="H30" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>437</v>
       </c>
@@ -5270,9 +5366,12 @@
       <c r="H31" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>103</v>
       </c>
@@ -5300,8 +5399,9 @@
       <c r="I32" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>103</v>
       </c>
@@ -5329,8 +5429,9 @@
       <c r="I33" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
@@ -5355,9 +5456,12 @@
       <c r="H34" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
@@ -5385,8 +5489,9 @@
       <c r="I35" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
@@ -5411,9 +5516,12 @@
       <c r="H36" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>103</v>
       </c>
@@ -5438,9 +5546,12 @@
       <c r="H37" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -5465,9 +5576,12 @@
       <c r="H38" t="s">
         <v>1118</v>
       </c>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
@@ -5495,8 +5609,9 @@
       <c r="I39" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>103</v>
       </c>
@@ -5524,8 +5639,9 @@
       <c r="I40" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>103</v>
       </c>
@@ -5550,9 +5666,12 @@
       <c r="H41" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -5577,9 +5696,12 @@
       <c r="H42" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>103</v>
       </c>
@@ -5607,8 +5729,9 @@
       <c r="I43" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>103</v>
       </c>
@@ -5634,9 +5757,12 @@
       <c r="H44" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>103</v>
       </c>
@@ -5661,9 +5787,12 @@
       <c r="H45" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
@@ -5688,9 +5817,12 @@
       <c r="H46" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
@@ -5715,9 +5847,12 @@
       <c r="H47" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
@@ -5745,8 +5880,9 @@
       <c r="I48" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
@@ -5774,8 +5910,9 @@
       <c r="I49" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -5803,8 +5940,9 @@
       <c r="I50" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
@@ -5832,8 +5970,9 @@
       <c r="I51" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
@@ -5861,8 +6000,9 @@
       <c r="I52" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>6</v>
       </c>
@@ -5887,9 +6027,12 @@
       <c r="H53" t="s">
         <v>1118</v>
       </c>
-      <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>6</v>
       </c>
@@ -5914,9 +6057,12 @@
       <c r="H54" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>6</v>
       </c>
@@ -5941,9 +6087,12 @@
       <c r="H55" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>6</v>
       </c>
@@ -5968,9 +6117,12 @@
       <c r="H56" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
@@ -5995,9 +6147,12 @@
       <c r="H57" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
@@ -6022,9 +6177,12 @@
       <c r="H58" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I58" s="10"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -6052,8 +6210,9 @@
       <c r="I59" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>6</v>
       </c>
@@ -6078,9 +6237,14 @@
       <c r="H60" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>6</v>
       </c>
@@ -6106,9 +6270,12 @@
       <c r="H61" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>165</v>
       </c>
@@ -6136,8 +6303,9 @@
       <c r="I62" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>165</v>
       </c>
@@ -6165,8 +6333,9 @@
       <c r="I63" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>165</v>
       </c>
@@ -6194,8 +6363,9 @@
       <c r="I64" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>165</v>
       </c>
@@ -6223,8 +6393,9 @@
       <c r="I65" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>165</v>
       </c>
@@ -6249,9 +6420,12 @@
       <c r="H66" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>165</v>
       </c>
@@ -6279,8 +6453,9 @@
       <c r="I67" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="10"/>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>165</v>
       </c>
@@ -6305,9 +6480,12 @@
       <c r="H68" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I68" s="10"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>165</v>
       </c>
@@ -6332,9 +6510,12 @@
       <c r="H69" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I69" s="10"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>165</v>
       </c>
@@ -6359,9 +6540,12 @@
       <c r="H70" t="s">
         <v>1122</v>
       </c>
-      <c r="I70" s="10"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>165</v>
       </c>
@@ -6386,9 +6570,12 @@
       <c r="H71" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I71" s="10"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>165</v>
       </c>
@@ -6413,9 +6600,12 @@
       <c r="H72" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>165</v>
       </c>
@@ -6443,8 +6633,9 @@
       <c r="I73" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>165</v>
       </c>
@@ -6470,9 +6661,12 @@
       <c r="H74" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I74" s="10"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>165</v>
       </c>
@@ -6497,9 +6691,12 @@
       <c r="H75" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I75" s="10"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I75" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>197</v>
       </c>
@@ -6527,8 +6724,9 @@
       <c r="I76" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>197</v>
       </c>
@@ -6556,8 +6754,9 @@
       <c r="I77" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>197</v>
       </c>
@@ -6585,8 +6784,9 @@
       <c r="I78" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>197</v>
       </c>
@@ -6614,8 +6814,9 @@
       <c r="I79" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>197</v>
       </c>
@@ -6640,9 +6841,12 @@
       <c r="H80" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I80" s="10"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I80" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>197</v>
       </c>
@@ -6670,8 +6874,9 @@
       <c r="I81" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>197</v>
       </c>
@@ -6696,9 +6901,12 @@
       <c r="H82" t="s">
         <v>1124</v>
       </c>
-      <c r="I82" s="10"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I82" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>197</v>
       </c>
@@ -6723,9 +6931,12 @@
       <c r="H83" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I83" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>197</v>
       </c>
@@ -6750,9 +6961,12 @@
       <c r="H84" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I84" s="10"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I84" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>197</v>
       </c>
@@ -6777,9 +6991,12 @@
       <c r="H85" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I85" s="10"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>197</v>
       </c>
@@ -6804,9 +7021,12 @@
       <c r="H86" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I86" s="10"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I86" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>197</v>
       </c>
@@ -6834,8 +7054,9 @@
       <c r="I87" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>197</v>
       </c>
@@ -6861,9 +7082,12 @@
       <c r="H88" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I88" s="10"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I88" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>197</v>
       </c>
@@ -6888,9 +7112,12 @@
       <c r="H89" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I89" s="10"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I89" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>407</v>
       </c>
@@ -6915,9 +7142,12 @@
       <c r="H90" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I90" s="10"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I90" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>407</v>
       </c>
@@ -6945,8 +7175,9 @@
       <c r="I91" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>407</v>
       </c>
@@ -6974,8 +7205,9 @@
       <c r="I92" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="10"/>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>407</v>
       </c>
@@ -7003,8 +7235,9 @@
       <c r="I93" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="10"/>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>407</v>
       </c>
@@ -7029,9 +7262,12 @@
       <c r="H94" t="s">
         <v>1125</v>
       </c>
-      <c r="I94" s="10"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I94" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>407</v>
       </c>
@@ -7056,9 +7292,12 @@
       <c r="H95" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I95" s="10"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I95" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>407</v>
       </c>
@@ -7083,9 +7322,12 @@
       <c r="H96" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I96" s="10"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I96" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>407</v>
       </c>
@@ -7113,8 +7355,9 @@
       <c r="I97" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>407</v>
       </c>
@@ -7142,8 +7385,9 @@
       <c r="I98" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>407</v>
       </c>
@@ -7168,9 +7412,12 @@
       <c r="H99" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I99" s="10"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I99" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>407</v>
       </c>
@@ -7195,9 +7442,12 @@
       <c r="H100" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I100" s="10"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I100" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>407</v>
       </c>
@@ -7225,8 +7475,9 @@
       <c r="I101" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="10"/>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>407</v>
       </c>
@@ -7252,9 +7503,12 @@
       <c r="H102" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I102" s="10"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I102" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>407</v>
       </c>
@@ -7279,9 +7533,12 @@
       <c r="H103" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I103" s="10"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I103" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J103" s="10"/>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>257</v>
       </c>
@@ -7306,9 +7563,12 @@
       <c r="H104" t="s">
         <v>1128</v>
       </c>
-      <c r="I104" s="10"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I104" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J104" s="10"/>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>257</v>
       </c>
@@ -7333,9 +7593,12 @@
       <c r="H105" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I105" s="10"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I105" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>257</v>
       </c>
@@ -7360,9 +7623,12 @@
       <c r="H106" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I106" s="10"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I106" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>257</v>
       </c>
@@ -7387,9 +7653,12 @@
       <c r="H107" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I107" s="10"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I107" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>257</v>
       </c>
@@ -7417,8 +7686,9 @@
       <c r="I108" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>257</v>
       </c>
@@ -7446,8 +7716,9 @@
       <c r="I109" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>257</v>
       </c>
@@ -7475,8 +7746,9 @@
       <c r="I110" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="10"/>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>257</v>
       </c>
@@ -7504,8 +7776,9 @@
       <c r="I111" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" s="10"/>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>257</v>
       </c>
@@ -7533,8 +7806,9 @@
       <c r="I112" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" s="10"/>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>257</v>
       </c>
@@ -7559,9 +7833,12 @@
       <c r="H113" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I113" s="10"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I113" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J113" s="10"/>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>257</v>
       </c>
@@ -7586,9 +7863,12 @@
       <c r="H114" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I114" s="10"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I114" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J114" s="10"/>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>257</v>
       </c>
@@ -7616,8 +7896,9 @@
       <c r="I115" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" s="10"/>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>257</v>
       </c>
@@ -7643,9 +7924,12 @@
       <c r="H116" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I116" s="10"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I116" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J116" s="10"/>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>257</v>
       </c>
@@ -7670,9 +7954,12 @@
       <c r="H117" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I117" s="10"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I117" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J117" s="10"/>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>73</v>
       </c>
@@ -7700,8 +7987,9 @@
       <c r="I118" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>73</v>
       </c>
@@ -7729,8 +8017,9 @@
       <c r="I119" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" s="10"/>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>73</v>
       </c>
@@ -7758,8 +8047,9 @@
       <c r="I120" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" s="10"/>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>73</v>
       </c>
@@ -7787,8 +8077,9 @@
       <c r="I121" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="10"/>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>73</v>
       </c>
@@ -7813,9 +8104,12 @@
       <c r="H122" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I122" s="10"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I122" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>73</v>
       </c>
@@ -7840,9 +8134,12 @@
       <c r="H123" t="s">
         <v>1130</v>
       </c>
-      <c r="I123" s="10"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I123" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>73</v>
       </c>
@@ -7867,9 +8164,12 @@
       <c r="H124" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I124" s="10"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I124" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J124" s="10"/>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>73</v>
       </c>
@@ -7894,9 +8194,12 @@
       <c r="H125" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I125" s="10"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I125" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J125" s="10"/>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>73</v>
       </c>
@@ -7924,8 +8227,9 @@
       <c r="I126" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>73</v>
       </c>
@@ -7950,9 +8254,12 @@
       <c r="H127" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I127" s="10"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I127" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J127" s="10"/>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>73</v>
       </c>
@@ -7977,9 +8284,12 @@
       <c r="H128" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I128" s="10"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I128" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J128" s="10"/>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>73</v>
       </c>
@@ -8007,8 +8317,9 @@
       <c r="I129" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" s="10"/>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>73</v>
       </c>
@@ -8034,9 +8345,12 @@
       <c r="H130" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I130" s="10"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I130" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J130" s="10"/>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>73</v>
       </c>
@@ -8061,9 +8375,12 @@
       <c r="H131" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I131" s="10"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I131" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J131" s="10"/>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>661</v>
       </c>
@@ -8088,9 +8405,12 @@
       <c r="H132" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I132" s="10"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I132" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J132" s="10"/>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>661</v>
       </c>
@@ -8118,8 +8438,9 @@
       <c r="I133" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" s="10"/>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>661</v>
       </c>
@@ -8147,8 +8468,9 @@
       <c r="I134" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" s="10"/>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>661</v>
       </c>
@@ -8176,8 +8498,9 @@
       <c r="I135" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>661</v>
       </c>
@@ -8205,8 +8528,9 @@
       <c r="I136" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" s="10"/>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>661</v>
       </c>
@@ -8234,8 +8558,9 @@
       <c r="I137" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" s="10"/>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>661</v>
       </c>
@@ -8260,9 +8585,12 @@
       <c r="H138" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I138" s="10"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I138" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J138" s="10"/>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>661</v>
       </c>
@@ -8287,9 +8615,12 @@
       <c r="H139" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I139" s="10"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I139" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J139" s="10"/>
+    </row>
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>661</v>
       </c>
@@ -8314,9 +8645,12 @@
       <c r="H140" t="s">
         <v>1153</v>
       </c>
-      <c r="I140" s="10"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I140" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J140" s="10"/>
+    </row>
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>661</v>
       </c>
@@ -8341,9 +8675,12 @@
       <c r="H141" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I141" s="10"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I141" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J141" s="10"/>
+    </row>
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>661</v>
       </c>
@@ -8368,9 +8705,12 @@
       <c r="H142" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I142" s="10"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I142" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J142" s="10"/>
+    </row>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>661</v>
       </c>
@@ -8398,8 +8738,9 @@
       <c r="I143" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" s="10"/>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>661</v>
       </c>
@@ -8425,9 +8766,12 @@
       <c r="H144" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I144" s="10"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I144" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J144" s="10"/>
+    </row>
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>661</v>
       </c>
@@ -8452,9 +8796,12 @@
       <c r="H145" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I145" s="10"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I145" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J145" s="10"/>
+    </row>
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>558</v>
       </c>
@@ -8482,8 +8829,9 @@
       <c r="I146" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" s="10"/>
+    </row>
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>558</v>
       </c>
@@ -8511,8 +8859,9 @@
       <c r="I147" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" s="10"/>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>558</v>
       </c>
@@ -8540,8 +8889,9 @@
       <c r="I148" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="10"/>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>558</v>
       </c>
@@ -8569,8 +8919,9 @@
       <c r="I149" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="10"/>
+    </row>
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>558</v>
       </c>
@@ -8595,9 +8946,12 @@
       <c r="H150" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I150" s="10"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I150" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J150" s="10"/>
+    </row>
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>558</v>
       </c>
@@ -8625,8 +8979,9 @@
       <c r="I151" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="10"/>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>558</v>
       </c>
@@ -8654,8 +9009,9 @@
       <c r="I152" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="10"/>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>558</v>
       </c>
@@ -8680,9 +9036,12 @@
       <c r="H153" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I153" s="10"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I153" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J153" s="10"/>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>558</v>
       </c>
@@ -8707,9 +9066,12 @@
       <c r="H154" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I154" s="10"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I154" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J154" s="10"/>
+    </row>
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>558</v>
       </c>
@@ -8734,9 +9096,12 @@
       <c r="H155" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I155" s="10"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I155" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J155" s="10"/>
+    </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>558</v>
       </c>
@@ -8761,9 +9126,12 @@
       <c r="H156" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I156" s="10"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I156" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J156" s="10"/>
+    </row>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>558</v>
       </c>
@@ -8788,9 +9156,12 @@
       <c r="H157" t="s">
         <v>1118</v>
       </c>
-      <c r="I157" s="10"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I157" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J157" s="10"/>
+    </row>
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>558</v>
       </c>
@@ -8816,9 +9187,12 @@
       <c r="H158" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I158" s="10"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I158" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J158" s="10"/>
+    </row>
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>558</v>
       </c>
@@ -8843,9 +9217,12 @@
       <c r="H159" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I159" s="10"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I159" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J159" s="10"/>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>378</v>
       </c>
@@ -8873,8 +9250,9 @@
       <c r="I160" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" s="10"/>
+    </row>
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>378</v>
       </c>
@@ -8902,8 +9280,9 @@
       <c r="I161" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" s="10"/>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>378</v>
       </c>
@@ -8931,8 +9310,9 @@
       <c r="I162" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" s="10"/>
+    </row>
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>378</v>
       </c>
@@ -8957,9 +9337,12 @@
       <c r="H163" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I163" s="10"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I163" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J163" s="10"/>
+    </row>
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>378</v>
       </c>
@@ -8984,9 +9367,12 @@
       <c r="H164" t="s">
         <v>1158</v>
       </c>
-      <c r="I164" s="10"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I164" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J164" s="10"/>
+    </row>
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>378</v>
       </c>
@@ -9011,9 +9397,12 @@
       <c r="H165" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I165" s="10"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I165" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J165" s="10"/>
+    </row>
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>378</v>
       </c>
@@ -9038,9 +9427,12 @@
       <c r="H166" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I166" s="10"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I166" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J166" s="10"/>
+    </row>
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>378</v>
       </c>
@@ -9068,8 +9460,9 @@
       <c r="I167" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" s="10"/>
+    </row>
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>378</v>
       </c>
@@ -9097,8 +9490,9 @@
       <c r="I168" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" s="10"/>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>378</v>
       </c>
@@ -9123,9 +9517,12 @@
       <c r="H169" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I169" s="10"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I169" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J169" s="10"/>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>378</v>
       </c>
@@ -9150,9 +9547,12 @@
       <c r="H170" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I170" s="10"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I170" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J170" s="10"/>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>378</v>
       </c>
@@ -9180,8 +9580,9 @@
       <c r="I171" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" s="10"/>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>378</v>
       </c>
@@ -9207,9 +9608,12 @@
       <c r="H172" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I172" s="10"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I172" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J172" s="10"/>
+    </row>
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>378</v>
       </c>
@@ -9234,9 +9638,12 @@
       <c r="H173" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I173" s="10"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I173" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J173" s="10"/>
+    </row>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>632</v>
       </c>
@@ -9264,8 +9671,9 @@
       <c r="I174" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174" s="10"/>
+    </row>
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>632</v>
       </c>
@@ -9293,8 +9701,9 @@
       <c r="I175" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175" s="10"/>
+    </row>
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>632</v>
       </c>
@@ -9322,8 +9731,9 @@
       <c r="I176" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" s="10"/>
+    </row>
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>632</v>
       </c>
@@ -9351,8 +9761,9 @@
       <c r="I177" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" s="10"/>
+    </row>
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>632</v>
       </c>
@@ -9377,9 +9788,12 @@
       <c r="H178" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I178" s="10"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I178" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J178" s="10"/>
+    </row>
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>632</v>
       </c>
@@ -9407,8 +9821,9 @@
       <c r="I179" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" s="10"/>
+    </row>
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>632</v>
       </c>
@@ -9436,8 +9851,9 @@
       <c r="I180" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180" s="10"/>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>632</v>
       </c>
@@ -9462,9 +9878,12 @@
       <c r="H181" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I181" s="10"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I181" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J181" s="10"/>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>632</v>
       </c>
@@ -9489,9 +9908,12 @@
       <c r="H182" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I182" s="10"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I182" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J182" s="10"/>
+    </row>
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>632</v>
       </c>
@@ -9516,9 +9938,12 @@
       <c r="H183" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I183" s="10"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I183" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J183" s="10"/>
+    </row>
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>632</v>
       </c>
@@ -9543,9 +9968,12 @@
       <c r="H184" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I184" s="10"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I184" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J184" s="10"/>
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>632</v>
       </c>
@@ -9570,9 +9998,12 @@
       <c r="H185" t="s">
         <v>1163</v>
       </c>
-      <c r="I185" s="10"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I185" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J185" s="10"/>
+    </row>
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>632</v>
       </c>
@@ -9598,9 +10029,12 @@
       <c r="H186" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I186" s="10"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I186" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J186" s="10"/>
+    </row>
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>632</v>
       </c>
@@ -9625,9 +10059,12 @@
       <c r="H187" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I187" s="10"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I187" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J187" s="10"/>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>467</v>
       </c>
@@ -9655,8 +10092,9 @@
       <c r="I188" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" s="10"/>
+    </row>
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>467</v>
       </c>
@@ -9684,8 +10122,9 @@
       <c r="I189" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189" s="10"/>
+    </row>
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>467</v>
       </c>
@@ -9713,8 +10152,9 @@
       <c r="I190" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190" s="10"/>
+    </row>
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>467</v>
       </c>
@@ -9742,8 +10182,9 @@
       <c r="I191" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191" s="10"/>
+    </row>
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>467</v>
       </c>
@@ -9771,8 +10212,9 @@
       <c r="I192" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192" s="10"/>
+    </row>
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>467</v>
       </c>
@@ -9800,8 +10242,9 @@
       <c r="I193" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" s="10"/>
+    </row>
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>467</v>
       </c>
@@ -9826,9 +10269,12 @@
       <c r="H194" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I194" s="10"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I194" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J194" s="10"/>
+    </row>
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>467</v>
       </c>
@@ -9853,9 +10299,12 @@
       <c r="H195" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I195" s="10"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I195" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J195" s="10"/>
+    </row>
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>467</v>
       </c>
@@ -9880,9 +10329,12 @@
       <c r="H196" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I196" s="10"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I196" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J196" s="10"/>
+    </row>
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>467</v>
       </c>
@@ -9907,9 +10359,12 @@
       <c r="H197" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I197" s="10"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I197" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J197" s="10"/>
+    </row>
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>467</v>
       </c>
@@ -9934,9 +10389,12 @@
       <c r="H198" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I198" s="10"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I198" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J198" s="10"/>
+    </row>
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>467</v>
       </c>
@@ -9961,9 +10419,12 @@
       <c r="H199" t="s">
         <v>1166</v>
       </c>
-      <c r="I199" s="10"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I199" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J199" s="10"/>
+    </row>
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>467</v>
       </c>
@@ -9989,9 +10450,12 @@
       <c r="H200" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I200" s="10"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I200" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J200" s="10"/>
+    </row>
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>467</v>
       </c>
@@ -10016,9 +10480,12 @@
       <c r="H201" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I201" s="10"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I201" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J201" s="10"/>
+    </row>
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>498</v>
       </c>
@@ -10046,8 +10513,9 @@
       <c r="I202" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202" s="10"/>
+    </row>
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>498</v>
       </c>
@@ -10075,8 +10543,9 @@
       <c r="I203" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203" s="10"/>
+    </row>
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>498</v>
       </c>
@@ -10104,8 +10573,9 @@
       <c r="I204" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204" s="10"/>
+    </row>
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>498</v>
       </c>
@@ -10133,8 +10603,9 @@
       <c r="I205" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205" s="10"/>
+    </row>
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>498</v>
       </c>
@@ -10159,9 +10630,12 @@
       <c r="H206" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I206" s="10"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I206" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J206" s="10"/>
+    </row>
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>498</v>
       </c>
@@ -10189,8 +10663,9 @@
       <c r="I207" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207" s="10"/>
+    </row>
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>498</v>
       </c>
@@ -10218,8 +10693,9 @@
       <c r="I208" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208" s="10"/>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>498</v>
       </c>
@@ -10244,9 +10720,12 @@
       <c r="H209" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I209" s="10"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I209" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J209" s="10"/>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>498</v>
       </c>
@@ -10271,9 +10750,12 @@
       <c r="H210" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I210" s="10"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I210" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J210" s="10"/>
+    </row>
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>498</v>
       </c>
@@ -10298,9 +10780,12 @@
       <c r="H211" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I211" s="10"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I211" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J211" s="10"/>
+    </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>498</v>
       </c>
@@ -10325,9 +10810,12 @@
       <c r="H212" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I212" s="10"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I212" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J212" s="10"/>
+    </row>
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>498</v>
       </c>
@@ -10352,9 +10840,12 @@
       <c r="H213" t="s">
         <v>1169</v>
       </c>
-      <c r="I213" s="10"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I213" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J213" s="10"/>
+    </row>
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>498</v>
       </c>
@@ -10380,9 +10871,12 @@
       <c r="H214" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I214" s="10"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I214" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J214" s="10"/>
+    </row>
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>498</v>
       </c>
@@ -10407,9 +10901,12 @@
       <c r="H215" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I215" s="10"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I215" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J215" s="10"/>
+    </row>
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>347</v>
       </c>
@@ -10434,9 +10931,12 @@
       <c r="H216" t="s">
         <v>1170</v>
       </c>
-      <c r="I216" s="10"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I216" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J216" s="10"/>
+    </row>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>347</v>
       </c>
@@ -10461,9 +10961,12 @@
       <c r="H217" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I217" s="10"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I217" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J217" s="10"/>
+    </row>
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>347</v>
       </c>
@@ -10488,9 +10991,12 @@
       <c r="H218" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I218" s="10"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I218" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J218" s="10"/>
+    </row>
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>347</v>
       </c>
@@ -10515,9 +11021,12 @@
       <c r="H219" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I219" s="10"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I219" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J219" s="10"/>
+    </row>
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>347</v>
       </c>
@@ -10545,8 +11054,9 @@
       <c r="I220" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220" s="10"/>
+    </row>
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>347</v>
       </c>
@@ -10574,8 +11084,9 @@
       <c r="I221" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221" s="10"/>
+    </row>
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>347</v>
       </c>
@@ -10603,8 +11114,9 @@
       <c r="I222" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222" s="10"/>
+    </row>
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>347</v>
       </c>
@@ -10632,8 +11144,9 @@
       <c r="I223" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" s="10"/>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>347</v>
       </c>
@@ -10661,8 +11174,9 @@
       <c r="I224" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" s="10"/>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>347</v>
       </c>
@@ -10687,9 +11201,12 @@
       <c r="H225" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I225" s="10"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I225" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J225" s="10"/>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>347</v>
       </c>
@@ -10714,9 +11231,12 @@
       <c r="H226" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I226" s="10"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I226" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J226" s="10"/>
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>347</v>
       </c>
@@ -10744,8 +11264,9 @@
       <c r="I227" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227" s="10"/>
+    </row>
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>347</v>
       </c>
@@ -10771,9 +11292,12 @@
       <c r="H228" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I228" s="10"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I228" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J228" s="10"/>
+    </row>
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>347</v>
       </c>
@@ -10798,9 +11322,12 @@
       <c r="H229" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I229" s="10"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I229" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J229" s="10"/>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>316</v>
       </c>
@@ -10828,8 +11355,9 @@
       <c r="I230" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230" s="10"/>
+    </row>
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>316</v>
       </c>
@@ -10854,9 +11382,12 @@
       <c r="H231" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I231" s="10"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I231" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J231" s="10"/>
+    </row>
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>316</v>
       </c>
@@ -10884,8 +11415,9 @@
       <c r="I232" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232" s="10"/>
+    </row>
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>316</v>
       </c>
@@ -10913,8 +11445,9 @@
       <c r="I233" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233" s="10"/>
+    </row>
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>316</v>
       </c>
@@ -10939,9 +11472,12 @@
       <c r="H234" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I234" s="10"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I234" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J234" s="10"/>
+    </row>
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>316</v>
       </c>
@@ -10966,9 +11502,12 @@
       <c r="H235" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I235" s="10"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I235" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J235" s="10"/>
+    </row>
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>316</v>
       </c>
@@ -10993,9 +11532,12 @@
       <c r="H236" t="s">
         <v>1175</v>
       </c>
-      <c r="I236" s="10"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I236" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J236" s="10"/>
+    </row>
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>316</v>
       </c>
@@ -11023,8 +11565,9 @@
       <c r="I237" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237" s="10"/>
+    </row>
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>316</v>
       </c>
@@ -11050,8 +11593,9 @@
       <c r="I238" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238" s="10"/>
+    </row>
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>316</v>
       </c>
@@ -11074,9 +11618,12 @@
       <c r="H239" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I239" s="10"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I239" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J239" s="10"/>
+    </row>
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>316</v>
       </c>
@@ -11101,9 +11648,12 @@
       <c r="H240" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I240" s="10"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I240" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J240" s="10"/>
+    </row>
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>316</v>
       </c>
@@ -11131,8 +11681,9 @@
       <c r="I241" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241" s="10"/>
+    </row>
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>316</v>
       </c>
@@ -11158,9 +11709,12 @@
       <c r="H242" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I242" s="10"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I242" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J242" s="10"/>
+    </row>
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>316</v>
       </c>
@@ -11185,9 +11739,12 @@
       <c r="H243" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I243" s="10"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I243" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J243" s="10"/>
+    </row>
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>527</v>
       </c>
@@ -11215,8 +11772,9 @@
       <c r="I244" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244" s="10"/>
+    </row>
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>527</v>
       </c>
@@ -11244,8 +11802,9 @@
       <c r="I245" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245" s="10"/>
+    </row>
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>527</v>
       </c>
@@ -11273,8 +11832,9 @@
       <c r="I246" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246" s="10"/>
+    </row>
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>527</v>
       </c>
@@ -11299,9 +11859,12 @@
       <c r="H247" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I247" s="10"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I247" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J247" s="10"/>
+    </row>
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>527</v>
       </c>
@@ -11329,8 +11892,9 @@
       <c r="I248" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248" s="10"/>
+    </row>
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>527</v>
       </c>
@@ -11355,9 +11919,12 @@
       <c r="H249" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I249" s="10"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I249" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J249" s="10"/>
+    </row>
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>527</v>
       </c>
@@ -11382,9 +11949,12 @@
       <c r="H250" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I250" s="10"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I250" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J250" s="10"/>
+    </row>
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>527</v>
       </c>
@@ -11409,9 +11979,12 @@
       <c r="H251" t="s">
         <v>1177</v>
       </c>
-      <c r="I251" s="10"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I251" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J251" s="10"/>
+    </row>
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>527</v>
       </c>
@@ -11439,8 +12012,9 @@
       <c r="I252" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252" s="10"/>
+    </row>
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>527</v>
       </c>
@@ -11465,9 +12039,12 @@
       <c r="H253" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I253" s="10"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I253" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J253" s="10"/>
+    </row>
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>527</v>
       </c>
@@ -11492,9 +12069,12 @@
       <c r="H254" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I254" s="10"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I254" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J254" s="10"/>
+    </row>
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>527</v>
       </c>
@@ -11522,8 +12102,9 @@
       <c r="I255" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J255" s="10"/>
+    </row>
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>527</v>
       </c>
@@ -11549,9 +12130,12 @@
       <c r="H256" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I256" s="10"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I256" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J256" s="10"/>
+    </row>
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>527</v>
       </c>
@@ -11576,9 +12160,12 @@
       <c r="H257" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I257" s="10"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I257" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J257" s="10"/>
+    </row>
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>133</v>
       </c>
@@ -11606,8 +12193,9 @@
       <c r="I258" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J258" s="10"/>
+    </row>
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>133</v>
       </c>
@@ -11632,9 +12220,12 @@
       <c r="H259" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I259" s="10"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I259" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J259" s="10"/>
+    </row>
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>133</v>
       </c>
@@ -11662,8 +12253,9 @@
       <c r="I260" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J260" s="10"/>
+    </row>
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>133</v>
       </c>
@@ -11691,8 +12283,9 @@
       <c r="I261" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J261" s="10"/>
+    </row>
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>133</v>
       </c>
@@ -11720,8 +12313,9 @@
       <c r="I262" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J262" s="10"/>
+    </row>
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>133</v>
       </c>
@@ -11749,8 +12343,9 @@
       <c r="I263" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J263" s="10"/>
+    </row>
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>133</v>
       </c>
@@ -11775,9 +12370,12 @@
       <c r="H264" t="s">
         <v>1180</v>
       </c>
-      <c r="I264" s="10"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I264" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J264" s="10"/>
+    </row>
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>133</v>
       </c>
@@ -11805,8 +12403,9 @@
       <c r="I265" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J265" s="10"/>
+    </row>
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>133</v>
       </c>
@@ -11831,9 +12430,12 @@
       <c r="H266" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I266" s="10"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I266" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J266" s="10"/>
+    </row>
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>133</v>
       </c>
@@ -11858,9 +12460,12 @@
       <c r="H267" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I267" s="10"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I267" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J267" s="10"/>
+    </row>
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>133</v>
       </c>
@@ -11885,9 +12490,12 @@
       <c r="H268" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I268" s="10"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I268" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J268" s="10"/>
+    </row>
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>133</v>
       </c>
@@ -11912,9 +12520,12 @@
       <c r="H269" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I269" s="10"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I269" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J269" s="10"/>
+    </row>
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>133</v>
       </c>
@@ -11940,9 +12551,12 @@
       <c r="H270" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I270" s="10"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I270" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J270" s="10"/>
+    </row>
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>133</v>
       </c>
@@ -11967,9 +12581,12 @@
       <c r="H271" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I271" s="10"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I271" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J271" s="10"/>
+    </row>
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>588</v>
       </c>
@@ -11994,9 +12611,12 @@
       <c r="H272" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I272" s="10"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I272" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J272" s="10"/>
+    </row>
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>588</v>
       </c>
@@ -12024,8 +12644,9 @@
       <c r="I273" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J273" s="10"/>
+    </row>
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>588</v>
       </c>
@@ -12053,8 +12674,9 @@
       <c r="I274" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J274" s="10"/>
+    </row>
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>588</v>
       </c>
@@ -12082,8 +12704,9 @@
       <c r="I275" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J275" s="10"/>
+    </row>
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>588</v>
       </c>
@@ -12111,8 +12734,9 @@
       <c r="I276" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J276" s="10"/>
+    </row>
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>588</v>
       </c>
@@ -12140,8 +12764,9 @@
       <c r="I277" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J277" s="10"/>
+    </row>
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>588</v>
       </c>
@@ -12166,9 +12791,12 @@
       <c r="H278" t="s">
         <v>1185</v>
       </c>
-      <c r="I278" s="10"/>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I278" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J278" s="10"/>
+    </row>
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>588</v>
       </c>
@@ -12193,9 +12821,12 @@
       <c r="H279" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I279" s="10"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I279" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J279" s="10"/>
+    </row>
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>588</v>
       </c>
@@ -12220,9 +12851,12 @@
       <c r="H280" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I280" s="10"/>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I280" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J280" s="10"/>
+    </row>
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>588</v>
       </c>
@@ -12247,9 +12881,12 @@
       <c r="H281" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I281" s="10"/>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I281" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J281" s="10"/>
+    </row>
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>588</v>
       </c>
@@ -12274,9 +12911,12 @@
       <c r="H282" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I282" s="10"/>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I282" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J282" s="10"/>
+    </row>
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>588</v>
       </c>
@@ -12304,8 +12944,9 @@
       <c r="I283" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J283" s="10"/>
+    </row>
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>588</v>
       </c>
@@ -12331,9 +12972,12 @@
       <c r="H284" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I284" s="10"/>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I284" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J284" s="10"/>
+    </row>
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>588</v>
       </c>
@@ -12358,9 +13002,12 @@
       <c r="H285" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I285" s="10"/>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I285" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J285" s="10"/>
+    </row>
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>289</v>
       </c>
@@ -12385,9 +13032,12 @@
       <c r="H286" t="s">
         <v>1187</v>
       </c>
-      <c r="I286" s="10"/>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I286" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J286" s="10"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>289</v>
       </c>
@@ -12413,8 +13063,11 @@
         <v>1202</v>
       </c>
       <c r="I287" s="10"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J287" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>289</v>
       </c>
@@ -12440,8 +13093,11 @@
         <v>1201</v>
       </c>
       <c r="I288" s="10"/>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J288" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>289</v>
       </c>
@@ -12469,8 +13125,9 @@
       <c r="I289" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J289" s="10"/>
+    </row>
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>289</v>
       </c>
@@ -12498,8 +13155,9 @@
       <c r="I290" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J290" s="10"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>289</v>
       </c>
@@ -12525,8 +13183,11 @@
         <v>759</v>
       </c>
       <c r="I291" s="10"/>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J291" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>289</v>
       </c>
@@ -12554,8 +13215,9 @@
       <c r="I292" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J292" s="10"/>
+    </row>
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>289</v>
       </c>
@@ -12583,8 +13245,9 @@
       <c r="I293" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J293" s="10"/>
+    </row>
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>289</v>
       </c>
@@ -12612,8 +13275,9 @@
       <c r="I294" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J294" s="10"/>
+    </row>
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>289</v>
       </c>
@@ -12638,9 +13302,12 @@
       <c r="H295" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I295" s="10"/>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I295" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J295" s="10"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>289</v>
       </c>
@@ -12666,8 +13333,11 @@
         <v>1203</v>
       </c>
       <c r="I296" s="10"/>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J296" s="10" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>289</v>
       </c>
@@ -12695,8 +13365,9 @@
       <c r="I297" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J297" s="10"/>
+    </row>
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>289</v>
       </c>
@@ -12722,9 +13393,12 @@
       <c r="H298" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I298" s="10"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I298" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J298" s="10"/>
+    </row>
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>289</v>
       </c>
@@ -12749,9 +13423,12 @@
       <c r="H299" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I299" s="10"/>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I299" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J299" s="10"/>
+    </row>
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>227</v>
       </c>
@@ -12776,9 +13453,12 @@
       <c r="H300" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I300" s="10"/>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I300" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J300" s="10"/>
+    </row>
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>227</v>
       </c>
@@ -12806,8 +13486,9 @@
       <c r="I301" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J301" s="10"/>
+    </row>
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>227</v>
       </c>
@@ -12835,8 +13516,9 @@
       <c r="I302" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J302" s="10"/>
+    </row>
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>227</v>
       </c>
@@ -12864,8 +13546,9 @@
       <c r="I303" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J303" s="10"/>
+    </row>
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>227</v>
       </c>
@@ -12893,8 +13576,9 @@
       <c r="I304" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J304" s="10"/>
+    </row>
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>227</v>
       </c>
@@ -12922,8 +13606,9 @@
       <c r="I305" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J305" s="10"/>
+    </row>
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>227</v>
       </c>
@@ -12948,9 +13633,12 @@
       <c r="H306" t="s">
         <v>1195</v>
       </c>
-      <c r="I306" s="10"/>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I306" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J306" s="10"/>
+    </row>
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>227</v>
       </c>
@@ -12975,9 +13663,12 @@
       <c r="H307" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I307" s="10"/>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I307" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J307" s="10"/>
+    </row>
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>227</v>
       </c>
@@ -13002,9 +13693,12 @@
       <c r="H308" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I308" s="10"/>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I308" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J308" s="10"/>
+    </row>
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>227</v>
       </c>
@@ -13029,9 +13723,12 @@
       <c r="H309" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I309" s="10"/>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I309" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J309" s="10"/>
+    </row>
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>227</v>
       </c>
@@ -13056,9 +13753,12 @@
       <c r="H310" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I310" s="10"/>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I310" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J310" s="10"/>
+    </row>
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>227</v>
       </c>
@@ -13086,8 +13786,9 @@
       <c r="I311" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J311" s="10"/>
+    </row>
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>227</v>
       </c>
@@ -13113,9 +13814,12 @@
       <c r="H312" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I312" s="10"/>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I312" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J312" s="10"/>
+    </row>
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>227</v>
       </c>
@@ -13140,9 +13844,12 @@
       <c r="H313" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I313" s="10"/>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I313" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J313" s="10"/>
+    </row>
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>610</v>
       </c>
@@ -13167,9 +13874,12 @@
       <c r="H314" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I314" s="10"/>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I314" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J314" s="10"/>
+    </row>
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>610</v>
       </c>
@@ -13197,8 +13907,9 @@
       <c r="I315" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J315" s="10"/>
+    </row>
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>610</v>
       </c>
@@ -13226,8 +13937,9 @@
       <c r="I316" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J316" s="10"/>
+    </row>
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>610</v>
       </c>
@@ -13255,8 +13967,9 @@
       <c r="I317" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J317" s="10"/>
+    </row>
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>610</v>
       </c>
@@ -13284,8 +13997,9 @@
       <c r="I318" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J318" s="10"/>
+    </row>
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>610</v>
       </c>
@@ -13313,8 +14027,9 @@
       <c r="I319" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J319" s="10"/>
+    </row>
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>610</v>
       </c>
@@ -13339,9 +14054,12 @@
       <c r="H320" t="s">
         <v>1199</v>
       </c>
-      <c r="I320" s="10"/>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I320" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J320" s="10"/>
+    </row>
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>610</v>
       </c>
@@ -13366,9 +14084,12 @@
       <c r="H321" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="I321" s="10"/>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I321" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J321" s="10"/>
+    </row>
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>610</v>
       </c>
@@ -13393,9 +14114,12 @@
       <c r="H322" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="I322" s="10"/>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I322" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J322" s="10"/>
+    </row>
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>610</v>
       </c>
@@ -13420,9 +14144,12 @@
       <c r="H323" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I323" s="10"/>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I323" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J323" s="10"/>
+    </row>
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>610</v>
       </c>
@@ -13447,9 +14174,12 @@
       <c r="H324" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="I324" s="10"/>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I324" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J324" s="10"/>
+    </row>
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>610</v>
       </c>
@@ -13477,8 +14207,9 @@
       <c r="I325" s="10" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J325" s="10"/>
+    </row>
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>610</v>
       </c>
@@ -13504,9 +14235,12 @@
       <c r="H326" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I326" s="10"/>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I326" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J326" s="10"/>
+    </row>
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>610</v>
       </c>
@@ -13531,11 +14265,14 @@
       <c r="H327" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I327" s="10"/>
+      <c r="I327" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J327" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"a"</formula>
     </cfRule>
   </conditionalFormatting>
